--- a/RUDN/Importance/Varible_muatal_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Western Asia.xlsx
@@ -43,12 +43,12 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
@@ -73,12 +73,12 @@
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -94,21 +94,21 @@
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
@@ -457,12 +457,12 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -583,6 +583,9 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
@@ -592,9 +595,6 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
@@ -622,18 +622,18 @@
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
@@ -652,24 +652,24 @@
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
@@ -697,21 +697,21 @@
     <t>Children out of school, primary, male</t>
   </si>
   <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
@@ -736,18 +736,18 @@
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
@@ -763,10 +763,13 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
@@ -775,36 +778,33 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
@@ -820,18 +820,18 @@
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
@@ -844,12 +844,12 @@
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
@@ -871,94 +871,100 @@
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Employers, male (% of male employment)</t>
@@ -967,183 +973,201 @@
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
     <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
@@ -1153,295 +1177,280 @@
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
     <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
@@ -1453,30 +1462,21 @@
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
@@ -1489,34 +1489,34 @@
     <t>Informal employment, female (% of total non-agricultural employment)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Improved water source, urban (% of urban population with access)</t>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.387912812125505</v>
+        <v>1.39344139403334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.374935815478983</v>
+        <v>1.373588685074174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.374498042916059</v>
+        <v>1.370861093939888</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.345312338655642</v>
+        <v>1.345591356512784</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.332399065831425</v>
+        <v>1.332804909987269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.277866382255067</v>
+        <v>1.278504137357107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.27224963481006</v>
+        <v>1.274398996420222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.270174088776494</v>
+        <v>1.27224963481006</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.230737455326862</v>
+        <v>1.230814425770211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.212781713966671</v>
+        <v>1.212578791888749</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.212781713966671</v>
+        <v>1.212578791888749</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.19974379213016</v>
+        <v>1.199958739220108</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.181761436783057</v>
+        <v>1.181811086735916</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.180918229593059</v>
+        <v>1.181761436783057</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.153934807760602</v>
+        <v>1.154492843474887</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.146364882203155</v>
+        <v>1.146508891419745</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.145569419186028</v>
+        <v>1.145921797614491</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.145214952376397</v>
+        <v>1.145136230920393</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.136079847786549</v>
+        <v>1.136423254379956</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.13355640224473</v>
+        <v>1.133442040342683</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.133442040342683</v>
+        <v>1.130826305689434</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.120301020088004</v>
+        <v>1.120239386809514</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.117602756718974</v>
+        <v>1.118504199026666</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.093895542755382</v>
+        <v>1.096708536970485</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.093323178774305</v>
+        <v>1.093895542755382</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.084577830567125</v>
+        <v>1.084298812709982</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.077591280059139</v>
+        <v>1.077870297916282</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.071595547709387</v>
+        <v>1.070603484217324</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.070431332311121</v>
+        <v>1.070013172215542</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.019395384887626</v>
+        <v>1.01914736901461</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.018464169914185</v>
+        <v>1.018112147384743</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.01119575191974</v>
+        <v>1.010947736046724</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9962199449217306</v>
+        <v>0.9966257890775752</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9950822175234371</v>
+        <v>0.9957270587932783</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9927362820609624</v>
+        <v>0.9933811233308036</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9926834752717304</v>
+        <v>0.9925382454382508</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9925382454382508</v>
+        <v>0.9924059139873957</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9924059139873957</v>
+        <v>0.9919394276526825</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9882087512710287</v>
+        <v>0.987836727461505</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9803636081728975</v>
+        <v>0.9809726110304009</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9764309140437315</v>
+        <v>0.9803636081728975</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9759998518942661</v>
+        <v>0.9766446931641077</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9599412053372389</v>
+        <v>0.9600900148610485</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9531008294347849</v>
+        <v>0.9525329644144209</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9527809802874367</v>
+        <v>0.9521294824213653</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9481224591745909</v>
+        <v>0.9464328765445811</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9362325356814045</v>
+        <v>0.936152816293649</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9337730524766568</v>
+        <v>0.9335250366036409</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9318540527457015</v>
+        <v>0.9314482085898574</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9272042446692939</v>
+        <v>0.926956228796278</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.926652540670069</v>
+        <v>0.9265249896496606</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9188870939145066</v>
+        <v>0.9186390780414908</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9146477375388327</v>
+        <v>0.9143997216658168</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9105238106320312</v>
+        <v>0.9101269852352054</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9092203608981362</v>
+        <v>0.9087243291521045</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.9084409623831196</v>
+        <v>0.9081486922271527</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9073734992349949</v>
+        <v>0.9076352981645921</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9065560533353474</v>
+        <v>0.9073734992349949</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9029738220133146</v>
+        <v>0.903101373033723</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9011788243423746</v>
+        <v>0.9013692526263641</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9003428964340507</v>
+        <v>0.9003495406385764</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8828881584763413</v>
+        <v>0.8828318859673381</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8802681443934919</v>
+        <v>0.8798623002376478</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8723841398925765</v>
+        <v>0.8713920764005132</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8689424383788662</v>
+        <v>0.8686944225058504</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8641654438563933</v>
+        <v>0.8643780288904068</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8621439671311952</v>
+        <v>0.8628277320854072</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.8619348749425502</v>
+        <v>0.8621439671311952</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8615916369280663</v>
+        <v>0.8614522969243754</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8562420397290511</v>
+        <v>0.8566317789580764</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8555316746658246</v>
+        <v>0.8553663307504813</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8540957744416886</v>
+        <v>0.8537237506321649</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.8204180152719514</v>
+        <v>0.8207161039497539</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.8049488996692822</v>
+        <v>0.8039841592024888</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.8041926038166864</v>
+        <v>0.8039445879436706</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.7891037156719327</v>
+        <v>0.7892053798360967</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.7862123817084465</v>
+        <v>0.785654345994161</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.7856540272095343</v>
+        <v>0.7854308129238197</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.7789059302474537</v>
+        <v>0.7791629648794878</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.7789059302474537</v>
+        <v>0.7791629648794878</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.7659657114965093</v>
+        <v>0.7672644127952104</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.7595292122857416</v>
+        <v>0.760273259904789</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.7508807958766899</v>
+        <v>0.7499426444492583</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.7448046250941553</v>
+        <v>0.7441845854116154</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.7382822456251175</v>
+        <v>0.7391201983773232</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.7343258097448548</v>
+        <v>0.7362806633442842</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.7303340870454593</v>
+        <v>0.7343258097448548</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.7293375510587632</v>
+        <v>0.7308301187914914</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.7289330577378015</v>
+        <v>0.7281765689039739</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.7234173726337256</v>
+        <v>0.7243102297765831</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.7113907097000065</v>
+        <v>0.7017513119422838</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6627086426050881</v>
+        <v>0.6628361936254965</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.6458827834806411</v>
+        <v>0.646269360714594</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6238092205302959</v>
+        <v>0.6187757144383066</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6237975377185161</v>
+        <v>0.61310051564304</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.61310051564304</v>
+        <v>0.6072807958795585</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.606923719314278</v>
+        <v>0.601487787372478</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6019129574405051</v>
+        <v>0.5997805124489903</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5858306092150056</v>
+        <v>0.5731086731374719</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5715050037711298</v>
+        <v>0.5652935771534326</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.5566365195411973</v>
+        <v>0.5571288391354881</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5497019680822652</v>
+        <v>0.5489579204632173</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.5308157949649646</v>
+        <v>0.5334867756497479</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5219439868647786</v>
+        <v>0.528443324751608</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4549601025908858</v>
+        <v>0.4548299745614111</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.446534217694035</v>
+        <v>0.4541551784913225</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4355845326076251</v>
+        <v>0.4344893678040345</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4329268439304212</v>
+        <v>0.4320808784926735</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4273342933071584</v>
+        <v>0.4279998386507298</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4247856099808904</v>
+        <v>0.4275360975923921</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4232162753798681</v>
+        <v>0.4163257430000555</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4062770684984631</v>
+        <v>0.4141685254988756</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4058892501428601</v>
+        <v>0.4039854845157216</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.396187648672286</v>
+        <v>0.4010739683078905</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3946652668597883</v>
+        <v>0.3992693601508197</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3756396509228468</v>
+        <v>0.3678447258500586</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3444261436013332</v>
+        <v>0.3402673449520002</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.341339127831819</v>
+        <v>0.3386043569180879</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3188171525349095</v>
+        <v>0.3190835044603955</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3187779853035038</v>
+        <v>0.3180686444774958</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3020581297484699</v>
+        <v>0.298089875780216</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.2961818830698359</v>
+        <v>0.2965917619336622</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2950756497243794</v>
+        <v>0.2938017500129795</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2896992777614071</v>
+        <v>0.2906268816653921</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2891034926244249</v>
+        <v>0.2859452193198488</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2886809058379989</v>
+        <v>0.2852006342259823</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2873947006949975</v>
+        <v>0.2844126987652102</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2837946667229314</v>
+        <v>0.284394893613575</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2773723941658734</v>
+        <v>0.2760364904862196</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2761116960687227</v>
+        <v>0.2758991110347091</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2708634817249864</v>
+        <v>0.2710409084649121</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2642928977484515</v>
+        <v>0.2591599014310799</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2597136726693736</v>
+        <v>0.2586291418614812</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2562349165435553</v>
+        <v>0.2556399175898281</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2551558366804023</v>
+        <v>0.2536307498768888</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2500204773115375</v>
+        <v>0.249735146462857</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2488701635380752</v>
+        <v>0.248566568785257</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2488097288632996</v>
+        <v>0.2484074160919776</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2461863557453499</v>
+        <v>0.2437556495573328</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2438650650206227</v>
+        <v>0.2436524799866091</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2391904792786164</v>
+        <v>0.2436379926501109</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2389132335660646</v>
+        <v>0.2372788244651758</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2369159762456312</v>
+        <v>0.2367508481714151</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2362721401535017</v>
+        <v>0.2355575179070803</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.234390004428866</v>
+        <v>0.2346250365063802</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2333133636440896</v>
+        <v>0.2343697579665152</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2318187332075203</v>
+        <v>0.2319250257245271</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2241375950818725</v>
+        <v>0.2249902150449419</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2189716829579214</v>
+        <v>0.2201588886094128</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2173200555977235</v>
+        <v>0.2171471569459187</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2165706850757618</v>
+        <v>0.2168837995224124</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2164719804527118</v>
+        <v>0.2132167054690888</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2157081376480208</v>
+        <v>0.2107634425678964</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.210379606923778</v>
+        <v>0.2078479124277979</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2062826584892075</v>
+        <v>0.203967744784491</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2062759224377315</v>
+        <v>0.2038062319100051</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2058659544535075</v>
+        <v>0.2025177401677933</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.203337669344954</v>
+        <v>0.2011087357255708</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.202940671151256</v>
+        <v>0.2010227556402377</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2023735118525101</v>
+        <v>0.1999038213247839</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2000527620501809</v>
+        <v>0.1970250358081689</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1998123745563709</v>
+        <v>0.196458845644806</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1915540893159628</v>
+        <v>0.1911482451601187</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.1895747472306133</v>
+        <v>0.189585972467968</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1865992708839557</v>
+        <v>0.1860371926278221</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1862458443946378</v>
+        <v>0.1851227531072326</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1823080003748152</v>
+        <v>0.1809110311528752</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1820753274867046</v>
+        <v>0.1801052138151065</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1811884240879056</v>
+        <v>0.1798373902533197</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1809716588779799</v>
+        <v>0.1798116800235896</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1808164002783819</v>
+        <v>0.179465366443796</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1802928216800088</v>
+        <v>0.1789855972764387</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1801592740417937</v>
+        <v>0.1778867456132183</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1784744015361541</v>
+        <v>0.1777627490843123</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1784016172465104</v>
+        <v>0.1763473943905072</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1782276594170842</v>
+        <v>0.1761905177735896</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1780765636939423</v>
+        <v>0.1754990449472091</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1773907252747888</v>
+        <v>0.1752522896607867</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1748354492310211</v>
+        <v>0.1749490151140443</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1746570515655486</v>
+        <v>0.1741550155316751</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.173357000428263</v>
+        <v>0.1709406256845842</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.172782468592378</v>
+        <v>0.1703210181468534</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1726227861005956</v>
+        <v>0.1703210181468534</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1703210181468534</v>
+        <v>0.1694935988196227</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1703210181468534</v>
+        <v>0.1680347933554223</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.164709208812138</v>
+        <v>0.1665403078206562</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.162299770450882</v>
+        <v>0.1628012921960054</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1611786051124429</v>
+        <v>0.160772760956599</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1609701931874867</v>
+        <v>0.159711235838494</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1606513608676827</v>
+        <v>0.1595044223561408</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1595044223561408</v>
+        <v>0.1573820505726886</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1585081226763052</v>
+        <v>0.1573820505726886</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.157233241048879</v>
+        <v>0.1567279416853595</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.157233241048879</v>
+        <v>0.1566994825444805</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1567279416853595</v>
+        <v>0.1565218965819686</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1566994825444805</v>
+        <v>0.1561271091609682</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1552948192722667</v>
+        <v>0.1558081316950644</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1552208324296491</v>
+        <v>0.1533878366057877</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1531461183775578</v>
+        <v>0.1528251287445404</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1528342300716814</v>
+        <v>0.1526215792849952</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1520487632052059</v>
+        <v>0.1513035336040187</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1510815550176934</v>
+        <v>0.1490322867905962</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1504068458223777</v>
+        <v>0.148704765785967</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1484370486953581</v>
+        <v>0.1483347064477354</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1483347064477354</v>
+        <v>0.1469914663081151</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.147249911874209</v>
+        <v>0.1451405853890051</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1469914663081151</v>
+        <v>0.1435137191339811</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.146458771705577</v>
+        <v>0.1435137191339811</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1453485298336961</v>
+        <v>0.1433291511715393</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1435137191339811</v>
+        <v>0.1431204475884951</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1435137191339811</v>
+        <v>0.1425806426906122</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1423577497084187</v>
+        <v>0.1421796510233544</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1421796510233544</v>
+        <v>0.1416200712735338</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1401926041418595</v>
+        <v>0.1403774890019902</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1374701725957783</v>
+        <v>0.1386092444523153</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1360636123468479</v>
+        <v>0.1379270389976099</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1356282536689049</v>
+        <v>0.1378172817681482</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1355566777533495</v>
+        <v>0.1377788329510632</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1354292432193955</v>
+        <v>0.1356165174380008</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1349460482141998</v>
+        <v>0.1355434698154248</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1347978421676532</v>
+        <v>0.135397471782811</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1333795742736383</v>
+        <v>0.1351508335975053</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1332828101286754</v>
+        <v>0.1349987644476478</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1329641801119748</v>
+        <v>0.1330265914156203</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1325624790320143</v>
+        <v>0.1324092379646651</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1300456006322102</v>
+        <v>0.1313955993082991</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1294282471812547</v>
+        <v>0.1304944895842484</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1275178900176797</v>
+        <v>0.1271990124666602</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1267669856724039</v>
+        <v>0.126841868681526</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1263455071443482</v>
+        <v>0.1267669856724039</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1262884949197409</v>
+        <v>0.1266927293665705</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1257013495645372</v>
+        <v>0.1264125478680711</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1256300688243299</v>
+        <v>0.125717736533123</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1238613369606831</v>
+        <v>0.1256300688243299</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.123679572957677</v>
+        <v>0.1240101464844927</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1234855936759802</v>
+        <v>0.1226761890870252</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1220809509917868</v>
+        <v>0.1218605633435592</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1201613488578195</v>
+        <v>0.1216957104862615</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1198099817728873</v>
+        <v>0.1216338965376802</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1196552848761905</v>
+        <v>0.1203101583816291</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1194635676291187</v>
+        <v>0.1186939103443159</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1191275884331651</v>
+        <v>0.1177741424343524</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1181779306776152</v>
+        <v>0.11684073147212</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1177741424343524</v>
+        <v>0.1152983401369101</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1170162851073948</v>
+        <v>0.1149815314791935</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1161604593632768</v>
+        <v>0.1144119824149492</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1144119824149492</v>
+        <v>0.1140813872816693</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1143012593703499</v>
+        <v>0.1125781119882012</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1123173493534995</v>
+        <v>0.1111102708496019</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.111867820363748</v>
+        <v>0.1109380998997456</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1116856046203083</v>
+        <v>0.1109011049307449</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1115963948292491</v>
+        <v>0.109494371607852</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1114373371584516</v>
+        <v>0.1094253337070021</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1112300652617082</v>
+        <v>0.109191449585986</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1112300652617082</v>
+        <v>0.1083258264975024</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1112300652617082</v>
+        <v>0.1079966280553391</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1110764958388939</v>
+        <v>0.1074940285630834</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1108862010770044</v>
+        <v>0.1068190953314703</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1105939850040742</v>
+        <v>0.1066368795880306</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1088733276852394</v>
+        <v>0.1065476697969714</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.10872889103377</v>
+        <v>0.1061813402294305</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1072622287507092</v>
+        <v>0.1061813402294305</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1069593067288432</v>
+        <v>0.1061813402294305</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.106444342923592</v>
+        <v>0.1051663945781036</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1064304161122462</v>
+        <v>0.1038290756446174</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1060936836403596</v>
+        <v>0.1035272158162335</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1050156372719291</v>
+        <v>0.1030240220096759</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1038290756446174</v>
+        <v>0.1028224091228238</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1012441586019681</v>
+        <v>0.1015104179679271</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1011929230011572</v>
+        <v>0.1012441586019681</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1008362047600577</v>
+        <v>0.1011601948962129</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1000783416451265</v>
+        <v>0.1000812209391253</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.09993883271655446</v>
+        <v>0.09983477917717942</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.09967931895940896</v>
+        <v>0.09930422590320021</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.09724323149848924</v>
+        <v>0.09813959978571551</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.09529211100602408</v>
+        <v>0.09724323149848924</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.09501315335794969</v>
+        <v>0.09436399012099339</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.0932980950588076</v>
+        <v>0.09436399012099339</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.0932866530012626</v>
+        <v>0.09436399012099339</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.09324791869242199</v>
+        <v>0.09436399012099339</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.09324791869242199</v>
+        <v>0.09436399012099339</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.09324791869242199</v>
+        <v>0.09343199195840501</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.09324791869242199</v>
+        <v>0.09239466777190231</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.09324791869242199</v>
+        <v>0.0916351477622801</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.09246125273972106</v>
+        <v>0.09062756853414267</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.09239466777190231</v>
+        <v>0.08986136220457341</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.09188316363529614</v>
+        <v>0.08980573320178409</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.09080003959621252</v>
+        <v>0.08910667144700368</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.09018453440274521</v>
+        <v>0.08780286321705133</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.08885170754646454</v>
+        <v>0.0867445705321932</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.08728997227033597</v>
+        <v>0.08473157978454338</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.08550449116711389</v>
+        <v>0.08344266482812346</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.08473157978454338</v>
+        <v>0.07935693438636182</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.07765707176833536</v>
+        <v>0.07914516700643071</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.07686042593807896</v>
+        <v>0.07656366165991035</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.07656366165991035</v>
+        <v>0.0741728377728712</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.07426838384167822</v>
+        <v>0.0741728377728712</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.07417092998242181</v>
+        <v>0.0741728377728712</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.07325498093428706</v>
+        <v>0.0741728377728712</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.07325498093428706</v>
+        <v>0.0741728377728712</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.0729327584077919</v>
+        <v>0.07325498093428706</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.0729327584077919</v>
+        <v>0.07325498093428706</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.0729327584077919</v>
+        <v>0.07099252376670839</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.0729327584077919</v>
+        <v>0.07011794201740251</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.0729327584077919</v>
+        <v>0.06984229056092417</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.07118141198422379</v>
+        <v>0.06964871558367713</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.07090946549147747</v>
+        <v>0.06943207431786869</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.07011794201740251</v>
+        <v>0.06861019402713286</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.06960402630197171</v>
+        <v>0.06657262550911747</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.06734754266176446</v>
+        <v>0.06591011063147212</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.06651621258247653</v>
+        <v>0.06476771677816218</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.06599673027912734</v>
+        <v>0.06370779532642024</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.0638486100423683</v>
+        <v>0.06324036583233994</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.06370779532642024</v>
+        <v>0.06250436842210383</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.06326050546714135</v>
+        <v>0.06208294177983009</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.06217424581376152</v>
+        <v>0.06094067248169188</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.06208294177983009</v>
+        <v>0.06094067248169188</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.06078327779304682</v>
+        <v>0.06042853168219531</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.06078327779304682</v>
+        <v>0.05873356535986685</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.0604182864633005</v>
+        <v>0.05650345129846546</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.05894043644409996</v>
+        <v>0.05648962478159736</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.0572454701217715</v>
+        <v>0.05597879092895708</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.05651575811749954</v>
+        <v>0.05577173215678344</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.05642026264408795</v>
+        <v>0.05417466058380649</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.05638906998149196</v>
+        <v>0.05372121820051978</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.05597879092895708</v>
+        <v>0.05317801203421757</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.05563123804333125</v>
+        <v>0.05308251656080598</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.05546344233301559</v>
+        <v>0.04951194413115201</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.05387683465072679</v>
+        <v>0.04885365313857393</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.05138387725939864</v>
+        <v>0.04782951143412117</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.04885365313857393</v>
+        <v>0.0456266027397807</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.04508973500223901</v>
+        <v>0.03939528413029225</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.03438190631928006</v>
+        <v>0.03932868058047068</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.03241082135045148</v>
+        <v>0.03366326086035953</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.03088493411868276</v>
+        <v>0.03286906110280974</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.03088493411868276</v>
+        <v>0.03286906110280974</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.0291863925703959</v>
+        <v>0.02856462662923342</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.02658049964510645</v>
+        <v>0.02856462662923342</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.02658049964510645</v>
+        <v>0.0254813669706011</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.0254813669706011</v>
+        <v>0.0239893475320998</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.02507602731782987</v>
+        <v>0.0239893475320998</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.0239893475320998</v>
+        <v>0.02119319529148411</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.0239893475320998</v>
+        <v>0.01996075127936092</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.01258707926356428</v>
+        <v>0.009073268172767435</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.008692195537325809</v>
+        <v>0.008202512937034223</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.008691066732647412</v>
+        <v>0.006771160077084337</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.003802422223735391</v>
+        <v>0.0007199392305383689</v>
       </c>
     </row>
   </sheetData>
